--- a/uploads/foodcategoryfile.xlsx
+++ b/uploads/foodcategoryfile.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
   <si>
     <t>sno</t>
   </si>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t>cuisine</t>
+  </si>
+  <si>
+    <t>sufficient</t>
   </si>
 </sst>
 </file>
@@ -522,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -687,7 +690,7 @@
         <v>51</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="Q2" t="s">
         <v>28</v>
